--- a/Export_Excel/Weather_Ranks.xlsx
+++ b/Export_Excel/Weather_Ranks.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:N10"/>
+  <dimension ref="A2:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,9 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -504,25 +507,34 @@
         <v>44824</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44823</v>
+        <v>44828</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44820</v>
+        <v>44825</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>44821</v>
+        <v>44825</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>44822</v>
+        <v>44826</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>44821</v>
+        <v>44827</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>44820</v>
+        <v>44826</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>44828</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>44824</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>44825</v>
       </c>
     </row>
     <row r="3">
@@ -553,28 +565,37 @@
         </is>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.9671992929488514</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.9033237868993457</v>
+        <v>0.927937678022737</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.7770382125112798</v>
+        <v>0.704308689247154</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.7433677883515943</v>
+        <v>0.6759679791002915</v>
       </c>
       <c r="K3" s="6" t="n">
         <v>0.6701070713407524</v>
       </c>
       <c r="L3" s="6" t="n">
-        <v>0.5545077745320666</v>
+        <v>0.6197839127212732</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0.5045718433487238</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0.4510518139836981</v>
+        <v>0.4556532506539293</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>0.3810304989921147</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>0.3792345237427528</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>0.2581961351514455</v>
       </c>
     </row>
     <row r="4">
@@ -605,28 +626,37 @@
       </c>
       <c r="F4" s="9" t="n"/>
       <c r="G4" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <v>0.5</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0.625</v>
       </c>
       <c r="J4" s="9" t="n">
         <v>0.625</v>
       </c>
       <c r="K4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P4" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="9" t="n">
-        <v>0.5</v>
+      <c r="Q4" s="9" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -635,44 +665,53 @@
           <t>Temperature</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="n">
+      <c r="B5" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>75</v>
-      </c>
-      <c r="D5" s="10" t="n">
-        <v>70</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>70</v>
       </c>
       <c r="F5" s="11" t="n"/>
       <c r="G5" s="11" t="n">
-        <v>69.55</v>
+        <v>73</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>71.33</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>73.11</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="J5" s="11" t="n">
-        <v>73.59999999999999</v>
+        <v>79.61</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>65.3</v>
+        <v>79.7</v>
       </c>
       <c r="L5" s="11" t="n">
-        <v>63.43</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="M5" s="11" t="n">
         <v>62.55</v>
       </c>
       <c r="N5" s="11" t="n">
-        <v>61.54</v>
+        <v>61.63</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>88.09</v>
       </c>
     </row>
     <row r="6">
@@ -703,28 +742,37 @@
       </c>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -755,28 +803,37 @@
       </c>
       <c r="F7" s="11" t="n"/>
       <c r="G7" s="11" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H7" s="11" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J7" s="11" t="n">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M7" s="11" t="n">
         <v>1022</v>
       </c>
       <c r="N7" s="11" t="n">
-        <v>1023</v>
+        <v>1016</v>
+      </c>
+      <c r="O7" s="11" t="n">
+        <v>1018</v>
+      </c>
+      <c r="P7" s="11" t="n">
+        <v>1017</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>1009</v>
       </c>
     </row>
     <row r="8">
@@ -807,28 +864,37 @@
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n">
-        <v>0.67</v>
+        <v>1.05</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>9.82</v>
+        <v>15.39</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>2.62</v>
+        <v>7.94</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>6.78</v>
+        <v>13.04</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>8.66</v>
+        <v>6.02</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>5.26</v>
+        <v>13.47</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>4.65</v>
+        <v>4.21</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>2.19</v>
+        <v>11.5</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>15.26</v>
       </c>
     </row>
     <row r="9">
@@ -862,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="11" t="n">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="I9" s="11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>0</v>
@@ -880,6 +946,15 @@
         <v>0</v>
       </c>
       <c r="N9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,6 +1007,15 @@
         <v>10000</v>
       </c>
       <c r="N10" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>10000</v>
       </c>
     </row>
